--- a/Input/Excel/Parameters_HeatNeed.xlsx
+++ b/Input/Excel/Parameters_HeatNeed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TL\Entwicklung\R\GitHub\myRepos\TabulaCharts\Input\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299D8AD5-D92E-4E9B-A9A2-261CD7A6580B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FA142-E82E-4F06-802D-B42BCF06EC92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10296" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12168" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
   <si>
     <t>VarName</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>DF$q_tr_floor</t>
+  </si>
+  <si>
+    <t>HeatNeed.02</t>
+  </si>
+  <si>
+    <t>HeatNeed.03</t>
+  </si>
+  <si>
+    <t>HeatNeed.04</t>
   </si>
 </sst>
 </file>
@@ -730,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC07B2AC-E276-43F5-BD4D-0F03B015AD90}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -1215,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999E11F1-4A6B-4F19-9DE9-82D2F58C1417}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1322,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="2">
-        <v>45436</v>
+        <v>45541</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
@@ -1343,7 +1352,7 @@
         <v>0.12</v>
       </c>
       <c r="S2" s="3">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="T2" s="3">
         <v>0.1</v>
@@ -1361,6 +1370,174 @@
         <v>5</v>
       </c>
       <c r="Z2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45436</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>300</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45541</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>300</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45541</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>300</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
         <v>50</v>
       </c>
     </row>

--- a/Input/Excel/Parameters_HeatNeed.xlsx
+++ b/Input/Excel/Parameters_HeatNeed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TL\Entwicklung\R\GitHub\myRepos\TabulaCharts\Input\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TL\Entwicklung\R\GitHub\myRepos\TabulaCharts\Input\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FA142-E82E-4F06-802D-B42BCF06EC92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740D8369-2E2A-40F7-8017-807EB083A966}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12168" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="153">
   <si>
     <t>VarName</t>
   </si>
@@ -404,6 +404,87 @@
   </si>
   <si>
     <t>HeatNeed.04</t>
+  </si>
+  <si>
+    <t>Label_Short_ENG</t>
+  </si>
+  <si>
+    <t>Label_Short_GER</t>
+  </si>
+  <si>
+    <t>Label_Short_XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net energy need </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive solar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heat input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilation </t>
+  </si>
+  <si>
+    <t>Thermal bridging</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>Ceiling</t>
+  </si>
+  <si>
+    <t>Walls</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Heizwärmebedarf</t>
+  </si>
+  <si>
+    <t>inn. Wärmequellen</t>
+  </si>
+  <si>
+    <t>passiv-solar</t>
+  </si>
+  <si>
+    <t>Wärmerückgew.</t>
+  </si>
+  <si>
+    <t>Wärmezufuhr</t>
+  </si>
+  <si>
+    <t>Wärmebrücken</t>
+  </si>
+  <si>
+    <t>Dach</t>
+  </si>
+  <si>
+    <t>Außenwand</t>
+  </si>
+  <si>
+    <t>Fenster</t>
+  </si>
+  <si>
+    <t>Fußboden</t>
+  </si>
+  <si>
+    <t>ob. Geschossdecke</t>
+  </si>
+  <si>
+    <t>HeatNeed.05</t>
   </si>
 </sst>
 </file>
@@ -737,23 +818,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC07B2AC-E276-43F5-BD4D-0F03B015AD90}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="18.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="18.109375" style="4" customWidth="1"/>
     <col min="6" max="9" width="15.77734375" style="4" customWidth="1"/>
-    <col min="10" max="12" width="31.21875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="4"/>
+    <col min="10" max="15" width="31.21875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -790,11 +869,20 @@
       <c r="L1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -825,11 +913,20 @@
       <c r="L2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -860,11 +957,20 @@
       <c r="L3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -895,11 +1001,20 @@
       <c r="L4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -930,11 +1045,20 @@
       <c r="L5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
@@ -965,11 +1089,20 @@
       <c r="L6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1000,11 +1133,20 @@
       <c r="L7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1035,11 +1177,20 @@
       <c r="L8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1070,11 +1221,20 @@
       <c r="L9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1105,11 +1265,20 @@
       <c r="L10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1140,11 +1309,20 @@
       <c r="L11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1175,11 +1353,20 @@
       <c r="L12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1210,12 +1397,21 @@
       <c r="L13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M14" s="1"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1224,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999E11F1-4A6B-4F19-9DE9-82D2F58C1417}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,6 +1737,62 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>300</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
